--- a/medicine/Enfance/Gilles_Gauthier_(dramaturge)/Gilles_Gauthier_(dramaturge).xlsx
+++ b/medicine/Enfance/Gilles_Gauthier_(dramaturge)/Gilles_Gauthier_(dramaturge).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Gauthier, né en 1957, diplômé en lettres et en éducation, a été professeur à l'Université de Montréal et a collaboré à de nombreux ouvrages, vidéos et disques pour l'enseignement du français.
 Comme auteur dramatique, il a écrit, à partir de 1979, des pièces pour enfants qui ont été présentées dans divers festivals internationaux.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le gros problème du petit Marcus, illustrations de Pierre-André Derome, La Courte échelle, 1992</t>
         </is>
@@ -542,10 +556,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1993 - Prix du livre M. Christie
-1996 : (international) « Honour List »[1] de l' IBBY, catégorie Auteur, pour ''Le gros problème du petit Marcus (illustrations de Pierre-André Derome)
+1996 : (international) « Honour List » de l' IBBY, catégorie Auteur, pour ''Le gros problème du petit Marcus (illustrations de Pierre-André Derome)
 2000 - Grand Prix littéraire de la Montérégie
 2001 - Grand Prix littéraire de la Montérégie
 2002 - Grand Prix littéraire de la Montérégie</t>
